--- a/According to Projection/Bulit_tree/3.Get_species_in_ncbi/GCA_information/information_binary_GCA.xlsx
+++ b/According to Projection/Bulit_tree/3.Get_species_in_ncbi/GCA_information/information_binary_GCA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Z_Work\LX\Data\Bulit_tree\3.Get_species_in_ncbi\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Z_Work\LX\Data\Bulit_tree\3.Get_species_in_ncbi\GCA_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406CE547-4AA4-43B6-B653-3C8877B42831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ED9D41-DC33-4FFE-ABE5-F46864E5BD88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4456,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" activeCellId="4" sqref="F1:F1048576 K1:K1048576 L1:L1048576 Q1:Q1048576 N1:N1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -82449,7 +82449,7 @@
         <v>0</v>
       </c>
       <c r="G898">
-        <f t="shared" ref="G898:G961" si="14">SUM(B898:F898)</f>
+        <f t="shared" ref="G898" si="14">SUM(B898:F898)</f>
         <v>0</v>
       </c>
     </row>
